--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/hla-geneid-valueset</t>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/hla-geneid-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:35:21-06:00</t>
+    <t>2023-01-12T09:36:27-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-hla-geneid-valueset.xlsx
+++ b/docs/ValueSet-hla-geneid-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
